--- a/prepdata/8m/fukabi_8.xlsx
+++ b/prepdata/8m/fukabi_8.xlsx
@@ -14,204 +14,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>お名前</t>
-  </si>
-  <si>
-    <t>8月10日</t>
-  </si>
-  <si>
-    <t>8月11日</t>
-  </si>
-  <si>
-    <t>8月12日</t>
-  </si>
-  <si>
-    <t>8月13日</t>
-  </si>
-  <si>
-    <t>8月14日</t>
-  </si>
-  <si>
-    <t>8月15日</t>
-  </si>
-  <si>
-    <t>8月16日</t>
-  </si>
-  <si>
-    <t>8月17日</t>
-  </si>
-  <si>
-    <t>8月18日</t>
-  </si>
-  <si>
-    <t>8月19日</t>
-  </si>
-  <si>
-    <t>8月1日</t>
-  </si>
-  <si>
-    <t>8月20日</t>
-  </si>
-  <si>
-    <t>8月21日</t>
-  </si>
-  <si>
-    <t>8月22日</t>
-  </si>
-  <si>
-    <t>8月23日</t>
-  </si>
-  <si>
-    <t>8月24日</t>
-  </si>
-  <si>
-    <t>8月25日</t>
-  </si>
-  <si>
-    <t>8月26日</t>
-  </si>
-  <si>
-    <t>8月27日</t>
-  </si>
-  <si>
-    <t>8月28日</t>
-  </si>
-  <si>
-    <t>8月29日</t>
-  </si>
-  <si>
-    <t>8月2日</t>
-  </si>
-  <si>
-    <t>8月30日</t>
-  </si>
-  <si>
-    <t>8月31日</t>
-  </si>
-  <si>
-    <t>8月3日</t>
-  </si>
-  <si>
-    <t>8月4日</t>
-  </si>
-  <si>
-    <t>8月5日</t>
-  </si>
-  <si>
-    <t>8月6日</t>
-  </si>
-  <si>
-    <t>8月7日</t>
-  </si>
-  <si>
-    <t>8月8日</t>
-  </si>
-  <si>
-    <t>8月9日</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,鈴木勝也 ,藤村 慶子 ,吉村梨沙 ,清水隆之 ,佐川　偲 ,大重達寛 ,松永崇宏 ,久冨木原健二 ,石井真央 ,青木康浩 ,吉田心慈 ,先崎光 ,入佐　薫 ,片山充哉 ,髙木菜々美 ,篠﨑太郎 ,太良史郎 ,野上創生 ,熊木聡美 ,高梨航輔 ,福井梓穂 ,織部　峻太郎 ,川瀬　咲 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,吉村梨沙 ,清水隆之 ,佐川　偲 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,久冨木原健二 ,石井真央 ,青木康浩 ,吉田心慈 ,入佐　薫 ,臼坂優希 ,片山充哉 ,髙木菜々美 ,篠﨑太郎 ,太良史郎 ,野上創生 ,高梨航輔 ,福井梓穂 ,織部　峻太郎 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,吉村梨沙 ,清水隆之 ,大重達寛 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,福原誠一郎 ,山田康博 ,久冨木原健二 ,吉田心慈 ,入佐　薫 ,臼坂優希 ,篠﨑太郎 ,太良史郎 ,高梨航輔 ,織部　峻太郎 ,川瀬　咲 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,鈴木徹志郎 ,持丸貴生 ,福原誠一郎 ,山田康博 ,津山頌章 ,篠﨑太郎 ,織部　峻太郎 ,里見　良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,平井智大 ,林智史 ,鈴木徹志郎 ,大重達寛 ,持丸貴生 ,松永崇宏 ,福原誠一郎 ,山田康博 ,久冨木原健二 ,青木康浩 ,吉田心慈 ,津山頌章 ,里見　良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,平井智大 ,林智史 ,鈴木徹志郎 ,脇坂悠介 ,松原龍輔 ,茅島敦人 ,松永崇宏 ,福原誠一郎 ,山田康博 ,久冨木原健二 ,太良史郎 ,里見　良輔</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,林智史 ,勝俣敬寛 ,鈴木徹志郎 ,脇坂悠介 ,松原龍輔 ,持丸貴生 ,茅島敦人 ,福原誠一郎 ,山田康博 ,東條誠也 ,久冨木原健二 ,津山頌章 ,野上創生 ,福井梓穂 ,織部　峻太郎 ,里見　良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,鈴木勝也 ,籠尾壽哉 ,林智史 ,勝俣敬寛 ,鈴木徹志郎 ,脇坂悠介 ,松原龍輔 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,福原誠一郎 ,山田康博 ,小林佐紀子 ,東條誠也 ,久冨木原健二 ,青木康浩 ,吉田心慈 ,津山頌章 ,入佐　薫 ,野上創生 ,熊木聡美 ,福井梓穂 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,林智史 ,勝俣敬寛 ,鈴木徹志郎 ,脇坂悠介 ,松原龍輔 ,佐川　偲 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,山田康博 ,小林佐紀子 ,久冨木原健二 ,吉田心慈 ,津山頌章 ,入佐　薫 ,篠﨑太郎 ,野上創生 ,熊木聡美 ,福井梓穂 ,里見　良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,鈴木徹志郎 ,松原龍輔 ,持丸貴生 ,茅島敦人 ,福原誠一郎 ,久冨木原健二 ,津山頌章 ,里見　良輔 ,川瀬　咲 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,平井智大 ,佐久間一也 ,鈴木徹志郎 ,脇坂悠介 ,茅島敦人 ,松永崇宏 ,野上創生 ,谷岡友則 ,里見　良輔</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,鈴木徹志郎 ,松原龍輔 ,持丸貴生 ,福原誠一郎 ,吉田心慈 ,津山頌章 ,篠﨑太郎 ,太良史郎 ,織部　峻太郎 ,里見　良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,吉田博道 ,勝俣敬寛 ,鈴木徹志郎 ,大重達寛 ,持丸貴生 ,松永崇宏 ,久冨木原健二 ,青木康浩 ,吉田心慈 ,津山頌章 ,太良史郎 ,里見　良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,平井智大 ,鈴木徹志郎 ,脇坂悠介 ,松永崇宏 ,太良史郎 ,里見　良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,鈴木徹志郎 ,脇坂悠介 ,大重達寛 ,持丸貴生 ,茅島敦人 ,福原誠一郎 ,久冨木原健二 ,太良史郎 ,高梨航輔 ,福井梓穂 ,織部　峻太郎 ,里見　良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,吉田博道 ,鈴木勝也 ,籠尾壽哉 ,雪野　満 ,藤村 慶子 ,林智史 ,勝俣敬寛 ,清水隆之 ,脇坂悠介 ,大重達寛 ,茅島敦人 ,松永崇宏 ,福原誠一郎 ,久冨木原健二 ,石井真央 ,青木康浩 ,吉田心慈 ,津山頌章 ,太良史郎 ,星貴文 ,高梨航輔 ,福井梓穂 ,織部　峻太郎 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,吉田博道 ,雪野　満 ,林智史 ,勝俣敬寛 ,佐川　偲 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,石井真央 ,青木康浩 ,吉田心慈 ,津山頌章 ,入佐　薫 ,篠﨑太郎 ,太良史郎 ,星貴文 ,福井梓穂 ,織部　峻太郎 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,鈴木徹志郎 ,持丸貴生 ,茅島敦人 ,福原誠一郎 ,久冨木原健二 ,青木康浩 ,星貴文 ,里見　良輔 ,川瀬　咲 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,鈴木徹志郎 ,持丸貴生 ,福原誠一郎 ,岩崎文美 ,津山頌章 ,篠﨑太郎 ,星貴文 ,織部　峻太郎 ,里見　良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,鈴木徹志郎 ,大重達寛 ,持丸貴生 ,松永崇宏 ,久冨木原健二 ,岩崎文美 ,青木康浩 ,吉田心慈 ,津山頌章 ,星貴文 ,里見　良輔</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,吉田博道 ,平井智大 ,林智史 ,鈴木徹志郎 ,脇坂悠介 ,松永崇宏 ,岩崎文美 ,吉田心慈 ,太良史郎 ,星貴文 ,熊木聡美 ,里見　良輔</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,林智史 ,鈴木徹志郎 ,持丸貴生 ,野上創生 ,谷岡友則 ,福井梓穂 ,里見　良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,吉田博道 ,雪野　満 ,鈴木徹志郎 ,脇坂悠介 ,持丸貴生 ,茅島敦人 ,石井真央 ,岩崎文美 ,吉田心慈 ,太良史郎 ,星貴文 ,熊木聡美 ,高梨航輔 ,福井梓穂 ,織部　峻太郎 ,里見　良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,吉田博道 ,鈴木勝也 ,籠尾壽哉 ,雪野　満 ,林智史 ,勝俣敬寛 ,脇坂悠介 ,茅島敦人 ,松永崇宏 ,久冨木原健二 ,石井真央 ,岩崎文美 ,青木康浩 ,吉田心慈 ,津山頌章 ,岡村真伊 ,入佐　薫 ,片山充哉 ,髙木菜々美 ,太良史郎 ,星貴文 ,熊木聡美 ,高梨航輔 ,福井梓穂 ,織部　峻太郎 ,里見　良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,鈴木勝也 ,藤村 慶子 ,林智史 ,清水隆之 ,鈴木徹志郎 ,松永崇宏 ,青木康浩 ,渡邉多代 ,片山充哉 ,髙木菜々美 ,太良史郎 ,野上創生 ,熊木聡美 ,福井梓穂 ,里見　良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,藤村 慶子 ,林智史 ,清水隆之 ,鈴木徹志郎 ,脇坂悠介 ,佐川　偲 ,持丸貴生 ,松永崇宏 ,久冨木原健二 ,渡邉多代 ,入佐　薫 ,片山充哉 ,篠﨑太郎 ,太良史郎 ,熊木聡美 ,福井梓穂 ,里見　良輔 ,川瀬　咲 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,鈴木徹志郎 ,脇坂悠介 ,持丸貴生 ,久冨木原健二 ,里見　良輔 ,川瀬　咲 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,吉田博道 ,鈴木徹志郎 ,持丸貴生 ,福原誠一郎 ,吉田心慈 ,津山頌章 ,篠﨑太郎 ,太良史郎 ,織部　峻太郎 ,里見　良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,勝俣敬寛 ,鈴木徹志郎 ,大重達寛 ,持丸貴生 ,松永崇宏 ,久冨木原健二 ,青木康浩 ,吉田心慈 ,津山頌章 ,太良史郎 ,里見　良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,平井智大 ,佐久間一也 ,鈴木徹志郎 ,脇坂悠介 ,松永崇宏 ,吉田心慈 ,太良史郎 ,里見　良輔</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,吉村梨沙 ,鈴木徹志郎 ,脇坂悠介 ,佐川　偲 ,大重達寛 ,持丸貴生 ,久冨木原健二 ,吉田心慈 ,髙木菜々美 ,太良史郎 ,高梨航輔 ,福井梓穂 ,織部　峻太郎 ,里見　良輔 ,川瀬　咲 ,門松賢</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,平井智大 ,佐久間一也 ,鈴木徹志郎 ,脇坂悠介 ,茅島敦人 ,松永崇宏 ,野上創生 ,谷岡友則 ,里見良輔</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,林智史 ,鈴木徹志郎 ,持丸貴生 ,野上創生 ,谷岡友則 ,福井梓穂 ,里見良輔 ,門松賢</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,鈴木勝也 ,藤村慶子 ,林智史 ,清水隆之 ,鈴木徹志郎 ,松永崇宏 ,青木康浩 ,渡邉多代 ,片山充哉 ,髙木菜々美 ,太良史郎 ,野上創生 ,熊木聡美 ,福井梓穂 ,里見良輔 ,門松賢</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,藤村慶子 ,林智史 ,清水隆之 ,鈴木徹志郎 ,脇坂悠介 ,佐川偲 ,持丸貴生 ,松永崇宏 ,久冨木原健二 ,渡邉多代 ,入佐薫 ,片山充哉 ,篠﨑太郎 ,太良史郎 ,熊木聡美 ,福井梓穂 ,里見良輔 ,川瀬咲 ,門松賢</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,鈴木徹志郎 ,脇坂悠介 ,持丸貴生 ,久冨木原健二 ,里見良輔 ,川瀬咲 ,門松賢</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,吉田博道 ,鈴木徹志郎 ,持丸貴生 ,福原誠一郎 ,吉田心慈 ,津山頌章 ,篠﨑太郎 ,太良史郎 ,織部峻太郎 ,里見良輔 ,門松賢</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,勝俣敬寛 ,鈴木徹志郎 ,大重達寛 ,持丸貴生 ,松永崇宏 ,久冨木原健二 ,青木康浩 ,吉田心慈 ,津山頌章 ,太良史郎 ,里見良輔 ,門松賢</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,平井智大 ,佐久間一也 ,鈴木徹志郎 ,脇坂悠介 ,松永崇宏 ,吉田心慈 ,太良史郎 ,里見良輔</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,吉村梨沙 ,鈴木徹志郎 ,脇坂悠介 ,佐川偲 ,大重達寛 ,持丸貴生 ,久冨木原健二 ,吉田心慈 ,髙木菜々美 ,太良史郎 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,里見良輔 ,川瀬咲 ,門松賢</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,鈴木勝也 ,藤村慶子 ,吉村梨沙 ,清水隆之 ,佐川偲 ,大重達寛 ,松永崇宏 ,久冨木原健二 ,石井真央 ,青木康浩 ,吉田心慈 ,先崎光 ,入佐薫 ,片山充哉 ,髙木菜々美 ,篠﨑太郎 ,太良史郎 ,野上創生 ,熊木聡美 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,川瀬咲 ,門松賢</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,吉村梨沙 ,清水隆之 ,佐川偲 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,久冨木原健二 ,石井真央 ,青木康浩 ,吉田心慈 ,入佐薫 ,臼坂優希 ,片山充哉 ,髙木菜々美 ,篠﨑太郎 ,太良史郎 ,野上創生 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,門松賢</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,吉村梨沙 ,清水隆之 ,大重達寛 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,福原誠一郎 ,山田康博 ,久冨木原健二 ,吉田心慈 ,入佐薫 ,臼坂優希 ,篠﨑太郎 ,太良史郎 ,高梨航輔 ,織部峻太郎 ,川瀬咲 ,門松賢</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,鈴木徹志郎 ,持丸貴生 ,福原誠一郎 ,山田康博 ,津山頌章 ,篠﨑太郎 ,織部峻太郎 ,里見良輔 ,門松賢</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,平井智大 ,林智史 ,鈴木徹志郎 ,大重達寛 ,持丸貴生 ,松永崇宏 ,福原誠一郎 ,山田康博 ,久冨木原健二 ,青木康浩 ,吉田心慈 ,津山頌章 ,里見良輔 ,門松賢</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,平井智大 ,林智史 ,鈴木徹志郎 ,脇坂悠介 ,松原龍輔 ,茅島敦人 ,松永崇宏 ,福原誠一郎 ,山田康博 ,久冨木原健二 ,太良史郎 ,里見良輔</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,林智史 ,勝俣敬寛 ,鈴木徹志郎 ,脇坂悠介 ,松原龍輔 ,持丸貴生 ,茅島敦人 ,福原誠一郎 ,山田康博 ,東條誠也 ,久冨木原健二 ,津山頌章 ,野上創生 ,福井梓穂 ,織部峻太郎 ,里見良輔 ,門松賢</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,鈴木勝也 ,籠尾壽哉 ,林智史 ,勝俣敬寛 ,鈴木徹志郎 ,脇坂悠介 ,松原龍輔 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,福原誠一郎 ,山田康博 ,小林佐紀子 ,東條誠也 ,久冨木原健二 ,青木康浩 ,吉田心慈 ,津山頌章 ,入佐薫 ,野上創生 ,熊木聡美 ,福井梓穂 ,門松賢</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,林智史 ,勝俣敬寛 ,鈴木徹志郎 ,脇坂悠介 ,松原龍輔 ,佐川偲 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,山田康博 ,小林佐紀子 ,久冨木原健二 ,吉田心慈 ,津山頌章 ,入佐薫 ,篠﨑太郎 ,野上創生 ,熊木聡美 ,福井梓穂 ,里見良輔 ,門松賢</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,鈴木徹志郎 ,松原龍輔 ,持丸貴生 ,茅島敦人 ,福原誠一郎 ,久冨木原健二 ,津山頌章 ,里見良輔 ,川瀬咲 ,門松賢</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,鈴木徹志郎 ,松原龍輔 ,持丸貴生 ,福原誠一郎 ,吉田心慈 ,津山頌章 ,篠﨑太郎 ,太良史郎 ,織部峻太郎 ,里見良輔 ,門松賢</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,吉田博道 ,勝俣敬寛 ,鈴木徹志郎 ,大重達寛 ,持丸貴生 ,松永崇宏 ,久冨木原健二 ,青木康浩 ,吉田心慈 ,津山頌章 ,太良史郎 ,里見良輔 ,門松賢</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,平井智大 ,鈴木徹志郎 ,脇坂悠介 ,松永崇宏 ,太良史郎 ,里見良輔 ,門松賢</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,鈴木徹志郎 ,脇坂悠介 ,大重達寛 ,持丸貴生 ,茅島敦人 ,福原誠一郎 ,久冨木原健二 ,太良史郎 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,里見良輔 ,門松賢</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,吉田博道 ,鈴木勝也 ,籠尾壽哉 ,雪野満 ,藤村慶子 ,林智史 ,勝俣敬寛 ,清水隆之 ,脇坂悠介 ,大重達寛 ,茅島敦人 ,松永崇宏 ,福原誠一郎 ,久冨木原健二 ,石井真央 ,青木康浩 ,吉田心慈 ,津山頌章 ,太良史郎 ,星貴文 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,門松賢</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,吉田博道 ,雪野満 ,林智史 ,勝俣敬寛 ,佐川偲 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,石井真央 ,青木康浩 ,吉田心慈 ,津山頌章 ,入佐薫 ,篠﨑太郎 ,太良史郎 ,星貴文 ,福井梓穂 ,織部峻太郎 ,門松賢</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,鈴木徹志郎 ,持丸貴生 ,茅島敦人 ,福原誠一郎 ,久冨木原健二 ,青木康浩 ,星貴文 ,里見良輔 ,川瀬咲 ,門松賢</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,鈴木徹志郎 ,持丸貴生 ,福原誠一郎 ,岩崎文美 ,津山頌章 ,篠﨑太郎 ,星貴文 ,織部峻太郎 ,里見良輔 ,門松賢</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,鈴木徹志郎 ,大重達寛 ,持丸貴生 ,松永崇宏 ,久冨木原健二 ,岩崎文美 ,青木康浩 ,吉田心慈 ,津山頌章 ,星貴文 ,里見良輔</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,吉田博道 ,平井智大 ,林智史 ,鈴木徹志郎 ,脇坂悠介 ,松永崇宏 ,岩崎文美 ,吉田心慈 ,太良史郎 ,星貴文 ,熊木聡美 ,里見良輔</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,吉田博道 ,雪野満 ,鈴木徹志郎 ,脇坂悠介 ,持丸貴生 ,茅島敦人 ,石井真央 ,岩崎文美 ,吉田心慈 ,太良史郎 ,星貴文 ,熊木聡美 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,里見良輔 ,門松賢</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,吉田博道 ,鈴木勝也 ,籠尾壽哉 ,雪野満 ,林智史 ,勝俣敬寛 ,脇坂悠介 ,茅島敦人 ,松永崇宏 ,久冨木原健二 ,石井真央 ,岩崎文美 ,青木康浩 ,吉田心慈 ,津山頌章 ,岡村真伊 ,入佐薫 ,片山充哉 ,髙木菜々美 ,太良史郎 ,星貴文 ,熊木聡美 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,里見良輔 ,門松賢</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -264,11 +174,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,341 +492,341 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2">
+        <v>45505</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2">
+        <v>45506</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2">
+        <v>45507</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2">
+        <v>45508</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2">
+        <v>45509</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2">
+        <v>45510</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2">
+        <v>45511</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2">
+        <v>45512</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2">
+        <v>45513</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2">
+        <v>45514</v>
+      </c>
+      <c r="C11" t="s">
         <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2">
+        <v>45515</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2">
+        <v>45516</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2">
+        <v>45517</v>
+      </c>
+      <c r="C14" t="s">
         <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2">
+        <v>45518</v>
+      </c>
+      <c r="C15" t="s">
         <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2">
+        <v>45519</v>
+      </c>
+      <c r="C16" t="s">
         <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2">
+        <v>45520</v>
+      </c>
+      <c r="C17" t="s">
         <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2">
+        <v>45521</v>
+      </c>
+      <c r="C18" t="s">
         <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2">
+        <v>45522</v>
+      </c>
+      <c r="C19" t="s">
         <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2">
+        <v>45523</v>
+      </c>
+      <c r="C20" t="s">
         <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2">
+        <v>45524</v>
+      </c>
+      <c r="C21" t="s">
         <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2">
+        <v>45525</v>
+      </c>
+      <c r="C22" t="s">
         <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2">
+        <v>45526</v>
+      </c>
+      <c r="C23" t="s">
         <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2">
+        <v>45527</v>
+      </c>
+      <c r="C24" t="s">
         <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2">
+        <v>45528</v>
+      </c>
+      <c r="C25" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2">
+        <v>45529</v>
+      </c>
+      <c r="C26" t="s">
         <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2">
+        <v>45530</v>
+      </c>
+      <c r="C27" t="s">
         <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C28" t="s">
         <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C29" t="s">
         <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2">
+        <v>45533</v>
+      </c>
+      <c r="C30" t="s">
         <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2">
+        <v>45534</v>
+      </c>
+      <c r="C31" t="s">
         <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2">
+        <v>45535</v>
+      </c>
+      <c r="C32" t="s">
         <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/prepdata/8m/fukabi_8.xlsx
+++ b/prepdata/8m/fukabi_8.xlsx
@@ -22,97 +22,97 @@
     <t>name</t>
   </si>
   <si>
-    <t>小西美沙子 ,平井智大 ,佐久間一也 ,鈴木徹志郎 ,脇坂悠介 ,茅島敦人 ,松永崇宏 ,野上創生 ,谷岡友則 ,里見良輔</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,林智史 ,鈴木徹志郎 ,持丸貴生 ,野上創生 ,谷岡友則 ,福井梓穂 ,里見良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,鈴木勝也 ,藤村慶子 ,林智史 ,清水隆之 ,鈴木徹志郎 ,松永崇宏 ,青木康浩 ,渡邉多代 ,片山充哉 ,髙木菜々美 ,太良史郎 ,野上創生 ,熊木聡美 ,福井梓穂 ,里見良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,藤村慶子 ,林智史 ,清水隆之 ,鈴木徹志郎 ,脇坂悠介 ,佐川偲 ,持丸貴生 ,松永崇宏 ,久冨木原健二 ,渡邉多代 ,入佐薫 ,片山充哉 ,篠﨑太郎 ,太良史郎 ,熊木聡美 ,福井梓穂 ,里見良輔 ,川瀬咲 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,鈴木徹志郎 ,脇坂悠介 ,持丸貴生 ,久冨木原健二 ,里見良輔 ,川瀬咲 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,吉田博道 ,鈴木徹志郎 ,持丸貴生 ,福原誠一郎 ,吉田心慈 ,津山頌章 ,篠﨑太郎 ,太良史郎 ,織部峻太郎 ,里見良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,勝俣敬寛 ,鈴木徹志郎 ,大重達寛 ,持丸貴生 ,松永崇宏 ,久冨木原健二 ,青木康浩 ,吉田心慈 ,津山頌章 ,太良史郎 ,里見良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,平井智大 ,佐久間一也 ,鈴木徹志郎 ,脇坂悠介 ,松永崇宏 ,吉田心慈 ,太良史郎 ,里見良輔</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,吉村梨沙 ,鈴木徹志郎 ,脇坂悠介 ,佐川偲 ,大重達寛 ,持丸貴生 ,久冨木原健二 ,吉田心慈 ,髙木菜々美 ,太良史郎 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,里見良輔 ,川瀬咲 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,鈴木勝也 ,藤村慶子 ,吉村梨沙 ,清水隆之 ,佐川偲 ,大重達寛 ,松永崇宏 ,久冨木原健二 ,石井真央 ,青木康浩 ,吉田心慈 ,先崎光 ,入佐薫 ,片山充哉 ,髙木菜々美 ,篠﨑太郎 ,太良史郎 ,野上創生 ,熊木聡美 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,川瀬咲 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,吉村梨沙 ,清水隆之 ,佐川偲 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,久冨木原健二 ,石井真央 ,青木康浩 ,吉田心慈 ,入佐薫 ,臼坂優希 ,片山充哉 ,髙木菜々美 ,篠﨑太郎 ,太良史郎 ,野上創生 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,吉村梨沙 ,清水隆之 ,大重達寛 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,福原誠一郎 ,山田康博 ,久冨木原健二 ,吉田心慈 ,入佐薫 ,臼坂優希 ,篠﨑太郎 ,太良史郎 ,高梨航輔 ,織部峻太郎 ,川瀬咲 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,鈴木徹志郎 ,持丸貴生 ,福原誠一郎 ,山田康博 ,津山頌章 ,篠﨑太郎 ,織部峻太郎 ,里見良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,平井智大 ,林智史 ,鈴木徹志郎 ,大重達寛 ,持丸貴生 ,松永崇宏 ,福原誠一郎 ,山田康博 ,久冨木原健二 ,青木康浩 ,吉田心慈 ,津山頌章 ,里見良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,平井智大 ,林智史 ,鈴木徹志郎 ,脇坂悠介 ,松原龍輔 ,茅島敦人 ,松永崇宏 ,福原誠一郎 ,山田康博 ,久冨木原健二 ,太良史郎 ,里見良輔</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,林智史 ,勝俣敬寛 ,鈴木徹志郎 ,脇坂悠介 ,松原龍輔 ,持丸貴生 ,茅島敦人 ,福原誠一郎 ,山田康博 ,東條誠也 ,久冨木原健二 ,津山頌章 ,野上創生 ,福井梓穂 ,織部峻太郎 ,里見良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,鈴木勝也 ,籠尾壽哉 ,林智史 ,勝俣敬寛 ,鈴木徹志郎 ,脇坂悠介 ,松原龍輔 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,福原誠一郎 ,山田康博 ,小林佐紀子 ,東條誠也 ,久冨木原健二 ,青木康浩 ,吉田心慈 ,津山頌章 ,入佐薫 ,野上創生 ,熊木聡美 ,福井梓穂 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,林智史 ,勝俣敬寛 ,鈴木徹志郎 ,脇坂悠介 ,松原龍輔 ,佐川偲 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,山田康博 ,小林佐紀子 ,久冨木原健二 ,吉田心慈 ,津山頌章 ,入佐薫 ,篠﨑太郎 ,野上創生 ,熊木聡美 ,福井梓穂 ,里見良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,鈴木徹志郎 ,松原龍輔 ,持丸貴生 ,茅島敦人 ,福原誠一郎 ,久冨木原健二 ,津山頌章 ,里見良輔 ,川瀬咲 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,鈴木徹志郎 ,松原龍輔 ,持丸貴生 ,福原誠一郎 ,吉田心慈 ,津山頌章 ,篠﨑太郎 ,太良史郎 ,織部峻太郎 ,里見良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,吉田博道 ,勝俣敬寛 ,鈴木徹志郎 ,大重達寛 ,持丸貴生 ,松永崇宏 ,久冨木原健二 ,青木康浩 ,吉田心慈 ,津山頌章 ,太良史郎 ,里見良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,平井智大 ,鈴木徹志郎 ,脇坂悠介 ,松永崇宏 ,太良史郎 ,里見良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,鈴木徹志郎 ,脇坂悠介 ,大重達寛 ,持丸貴生 ,茅島敦人 ,福原誠一郎 ,久冨木原健二 ,太良史郎 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,里見良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,吉田博道 ,鈴木勝也 ,籠尾壽哉 ,雪野満 ,藤村慶子 ,林智史 ,勝俣敬寛 ,清水隆之 ,脇坂悠介 ,大重達寛 ,茅島敦人 ,松永崇宏 ,福原誠一郎 ,久冨木原健二 ,石井真央 ,青木康浩 ,吉田心慈 ,津山頌章 ,太良史郎 ,星貴文 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,吉田博道 ,雪野満 ,林智史 ,勝俣敬寛 ,佐川偲 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,石井真央 ,青木康浩 ,吉田心慈 ,津山頌章 ,入佐薫 ,篠﨑太郎 ,太良史郎 ,星貴文 ,福井梓穂 ,織部峻太郎 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,鈴木徹志郎 ,持丸貴生 ,茅島敦人 ,福原誠一郎 ,久冨木原健二 ,青木康浩 ,星貴文 ,里見良輔 ,川瀬咲 ,門松賢</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,鈴木徹志郎 ,持丸貴生 ,福原誠一郎 ,岩崎文美 ,津山頌章 ,篠﨑太郎 ,星貴文 ,織部峻太郎 ,里見良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,鈴木徹志郎 ,大重達寛 ,持丸貴生 ,松永崇宏 ,久冨木原健二 ,岩崎文美 ,青木康浩 ,吉田心慈 ,津山頌章 ,星貴文 ,里見良輔</t>
-  </si>
-  <si>
-    <t>小西美沙子 ,吉田博道 ,平井智大 ,林智史 ,鈴木徹志郎 ,脇坂悠介 ,松永崇宏 ,岩崎文美 ,吉田心慈 ,太良史郎 ,星貴文 ,熊木聡美 ,里見良輔</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,吉田博道 ,雪野満 ,鈴木徹志郎 ,脇坂悠介 ,持丸貴生 ,茅島敦人 ,石井真央 ,岩崎文美 ,吉田心慈 ,太良史郎 ,星貴文 ,熊木聡美 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,里見良輔 ,門松賢</t>
-  </si>
-  <si>
-    <t>伊藤国秋 ,小西美沙子 ,吉田博道 ,鈴木勝也 ,籠尾壽哉 ,雪野満 ,林智史 ,勝俣敬寛 ,脇坂悠介 ,茅島敦人 ,松永崇宏 ,久冨木原健二 ,石井真央 ,岩崎文美 ,青木康浩 ,吉田心慈 ,津山頌章 ,岡村真伊 ,入佐薫 ,片山充哉 ,髙木菜々美 ,太良史郎 ,星貴文 ,熊木聡美 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,里見良輔 ,門松賢</t>
+    <t>小西美沙子 ,平井智大 ,佐久間一也 ,鈴木徹志郎 ,脇坂悠介 ,茅島敦人 ,松永崇宏 ,野上創生 ,谷岡友則 ,里見良輔 ,深沢夏海 ,莇舜平 ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,林智史 ,鈴木徹志郎 ,持丸貴生 ,野上創生 ,谷岡友則 ,福井梓穂 ,里見良輔 ,門松賢 ,莇舜平 ,藤澤まり ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,鈴木勝也 ,藤村慶子 ,林智史 ,清水隆之 ,鈴木徹志郎 ,松永崇宏 ,青木康浩 ,渡邉多代 ,片山充哉 ,髙木菜々美 ,太良史郎 ,野上創生 ,熊木聡美 ,福井梓穂 ,里見良輔 ,門松賢 ,荒金直美 ,莇舜平 ,藤澤まり ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,藤村慶子 ,林智史 ,清水隆之 ,鈴木徹志郎 ,脇坂悠介 ,佐川偲 ,持丸貴生 ,松永崇宏 ,久冨木原健二 ,渡邉多代 ,入佐薫 ,片山充哉 ,篠﨑太郎 ,太良史郎 ,熊木聡美 ,福井梓穂 ,里見良輔 ,川瀬咲 ,門松賢 ,荒金直美 ,莇舜平 ,藤澤まり ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,鈴木徹志郎 ,脇坂悠介 ,持丸貴生 ,久冨木原健二 ,里見良輔 ,川瀬咲 ,門松賢 ,莇舜平 ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,吉田博道 ,鈴木徹志郎 ,持丸貴生 ,福原誠一郎 ,吉田心慈 ,津山頌章 ,篠﨑太郎 ,太良史郎 ,織部峻太郎 ,里見良輔 ,門松賢 ,荒金直美 ,莇舜平 ,藤澤まり ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,勝俣敬寛 ,鈴木徹志郎 ,大重達寛 ,持丸貴生 ,松永崇宏 ,久冨木原健二 ,青木康浩 ,吉田心慈 ,津山頌章 ,太良史郎 ,里見良輔 ,門松賢 ,荒金直美 ,莇舜平 ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,平井智大 ,佐久間一也 ,鈴木徹志郎 ,脇坂悠介 ,松永崇宏 ,吉田心慈 ,太良史郎 ,里見良輔 ,深沢夏海 ,莇舜平 ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,吉村梨沙 ,鈴木徹志郎 ,脇坂悠介 ,佐川偲 ,大重達寛 ,持丸貴生 ,久冨木原健二 ,吉田心慈 ,髙木菜々美 ,太良史郎 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,里見良輔 ,川瀬咲 ,門松賢 ,莇舜平 ,藤澤まり ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,鈴木勝也 ,藤村慶子 ,吉村梨沙 ,清水隆之 ,佐川偲 ,大重達寛 ,松永崇宏 ,久冨木原健二 ,石井真央 ,青木康浩 ,吉田心慈 ,先崎光 ,入佐薫 ,片山充哉 ,髙木菜々美 ,篠﨑太郎 ,太良史郎 ,野上創生 ,熊木聡美 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,川瀬咲 ,門松賢 ,莇舜平 ,藤澤まり</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,吉村梨沙 ,清水隆之 ,佐川偲 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,久冨木原健二 ,石井真央 ,青木康浩 ,吉田心慈 ,入佐薫 ,臼坂優希 ,片山充哉 ,髙木菜々美 ,篠﨑太郎 ,太良史郎 ,野上創生 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,門松賢 ,莇舜平 ,藤澤まり</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,吉村梨沙 ,清水隆之 ,大重達寛 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,福原誠一郎 ,山田康博 ,久冨木原健二 ,吉田心慈 ,入佐薫 ,臼坂優希 ,篠﨑太郎 ,太良史郎 ,高梨航輔 ,織部峻太郎 ,川瀬咲 ,門松賢 ,莇舜平 ,藤澤まり ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,鈴木徹志郎 ,持丸貴生 ,福原誠一郎 ,山田康博 ,津山頌章 ,篠﨑太郎 ,織部峻太郎 ,里見良輔 ,門松賢 ,荒金直美 ,莇舜平 ,藤澤まり ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,平井智大 ,林智史 ,鈴木徹志郎 ,大重達寛 ,持丸貴生 ,松永崇宏 ,福原誠一郎 ,山田康博 ,久冨木原健二 ,青木康浩 ,吉田心慈 ,津山頌章 ,里見良輔 ,門松賢 ,荒金直美 ,莇舜平 ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,平井智大 ,林智史 ,鈴木徹志郎 ,脇坂悠介 ,松原龍輔 ,茅島敦人 ,松永崇宏 ,福原誠一郎 ,山田康博 ,久冨木原健二 ,太良史郎 ,里見良輔 ,莇舜平 ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,林智史 ,勝俣敬寛 ,鈴木徹志郎 ,脇坂悠介 ,松原龍輔 ,持丸貴生 ,茅島敦人 ,福原誠一郎 ,山田康博 ,東條誠也 ,久冨木原健二 ,津山頌章 ,野上創生 ,福井梓穂 ,織部峻太郎 ,里見良輔 ,門松賢 ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,鈴木勝也 ,籠尾壽哉 ,林智史 ,勝俣敬寛 ,鈴木徹志郎 ,脇坂悠介 ,松原龍輔 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,福原誠一郎 ,山田康博 ,小林佐紀子 ,東條誠也 ,久冨木原健二 ,青木康浩 ,吉田心慈 ,津山頌章 ,入佐薫 ,野上創生 ,熊木聡美 ,福井梓穂 ,門松賢 ,莇舜平</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,林智史 ,勝俣敬寛 ,鈴木徹志郎 ,脇坂悠介 ,松原龍輔 ,佐川偲 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,山田康博 ,小林佐紀子 ,久冨木原健二 ,吉田心慈 ,津山頌章 ,入佐薫 ,篠﨑太郎 ,野上創生 ,熊木聡美 ,福井梓穂 ,里見良輔 ,門松賢 ,深沢夏海 ,莇舜平 ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,鈴木徹志郎 ,松原龍輔 ,持丸貴生 ,茅島敦人 ,福原誠一郎 ,久冨木原健二 ,津山頌章 ,里見良輔 ,川瀬咲 ,門松賢 ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,鈴木徹志郎 ,松原龍輔 ,持丸貴生 ,福原誠一郎 ,吉田心慈 ,津山頌章 ,篠﨑太郎 ,太良史郎 ,織部峻太郎 ,里見良輔 ,門松賢 ,荒金直美 ,莇舜平 ,藤澤まり ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,吉田博道 ,勝俣敬寛 ,鈴木徹志郎 ,大重達寛 ,持丸貴生 ,松永崇宏 ,久冨木原健二 ,青木康浩 ,吉田心慈 ,津山頌章 ,太良史郎 ,里見良輔 ,門松賢 ,荒金直美 ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,平井智大 ,鈴木徹志郎 ,脇坂悠介 ,松永崇宏 ,太良史郎 ,里見良輔 ,門松賢 ,深沢夏海 ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,鈴木徹志郎 ,脇坂悠介 ,大重達寛 ,持丸貴生 ,茅島敦人 ,福原誠一郎 ,久冨木原健二 ,太良史郎 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,里見良輔 ,門松賢 ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,吉田博道 ,鈴木勝也 ,籠尾壽哉 ,雪野満 ,藤村慶子 ,林智史 ,勝俣敬寛 ,清水隆之 ,脇坂悠介 ,大重達寛 ,茅島敦人 ,松永崇宏 ,福原誠一郎 ,久冨木原健二 ,石井真央 ,青木康浩 ,吉田心慈 ,津山頌章 ,太良史郎 ,星貴文 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,門松賢 ,荒金直美 ,莇舜平 ,藤澤まり ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,吉田博道 ,雪野満 ,林智史 ,勝俣敬寛 ,佐川偲 ,持丸貴生 ,茅島敦人 ,松永崇宏 ,石井真央 ,青木康浩 ,吉田心慈 ,津山頌章 ,入佐薫 ,篠﨑太郎 ,太良史郎 ,星貴文 ,福井梓穂 ,織部峻太郎 ,門松賢 ,莇舜平 ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,鈴木徹志郎 ,持丸貴生 ,茅島敦人 ,福原誠一郎 ,久冨木原健二 ,青木康浩 ,星貴文 ,里見良輔 ,川瀬咲 ,門松賢 ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,鈴木徹志郎 ,持丸貴生 ,福原誠一郎 ,岩崎文美 ,津山頌章 ,篠﨑太郎 ,星貴文 ,織部峻太郎 ,里見良輔 ,門松賢 ,荒金直美 ,莇舜平 ,藤澤まり ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,鈴木徹志郎 ,大重達寛 ,持丸貴生 ,松永崇宏 ,久冨木原健二 ,岩崎文美 ,青木康浩 ,吉田心慈 ,津山頌章 ,星貴文 ,里見良輔 ,荒金直美 ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>小西美沙子 ,吉田博道 ,平井智大 ,林智史 ,鈴木徹志郎 ,脇坂悠介 ,松永崇宏 ,岩崎文美 ,吉田心慈 ,太良史郎 ,星貴文 ,熊木聡美 ,里見良輔 ,深沢夏海 ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,吉田博道 ,雪野満 ,鈴木徹志郎 ,脇坂悠介 ,持丸貴生 ,茅島敦人 ,石井真央 ,岩崎文美 ,吉田心慈 ,太良史郎 ,星貴文 ,熊木聡美 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,里見良輔 ,門松賢 ,佐久川佳怜</t>
+  </si>
+  <si>
+    <t>伊藤国秋 ,小西美沙子 ,吉田博道 ,鈴木勝也 ,籠尾壽哉 ,雪野満 ,林智史 ,勝俣敬寛 ,脇坂悠介 ,茅島敦人 ,松永崇宏 ,久冨木原健二 ,石井真央 ,岩崎文美 ,青木康浩 ,吉田心慈 ,津山頌章 ,岡村真伊 ,入佐薫 ,片山充哉 ,髙木菜々美 ,太良史郎 ,星貴文 ,熊木聡美 ,高梨航輔 ,福井梓穂 ,織部峻太郎 ,里見良輔 ,門松賢 ,荒金直美 ,莇舜平</t>
   </si>
 </sst>
 </file>
